--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8911683333333333</v>
+        <v>0.2035556666666667</v>
       </c>
       <c r="H2">
-        <v>2.673505</v>
+        <v>0.6106670000000001</v>
       </c>
       <c r="I2">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="J2">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>61.27353666666666</v>
+        <v>32.51511900000001</v>
       </c>
       <c r="N2">
-        <v>183.82061</v>
+        <v>97.54535700000001</v>
       </c>
       <c r="O2">
-        <v>0.3474604587406809</v>
+        <v>0.218203973858649</v>
       </c>
       <c r="P2">
-        <v>0.3474604587406808</v>
+        <v>0.2182039738586489</v>
       </c>
       <c r="Q2">
-        <v>54.60503554867222</v>
+        <v>6.618636724791002</v>
       </c>
       <c r="R2">
-        <v>491.44531993805</v>
+        <v>59.56773052311901</v>
       </c>
       <c r="S2">
-        <v>0.009358587257854298</v>
+        <v>0.001341717528809825</v>
       </c>
       <c r="T2">
-        <v>0.009358587257854297</v>
+        <v>0.001341717528809825</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8911683333333333</v>
+        <v>0.2035556666666667</v>
       </c>
       <c r="H3">
-        <v>2.673505</v>
+        <v>0.6106670000000001</v>
       </c>
       <c r="I3">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="J3">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>269.001297</v>
       </c>
       <c r="O3">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="P3">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="Q3">
-        <v>79.908479170665</v>
+        <v>18.252246115011</v>
       </c>
       <c r="R3">
-        <v>719.1763125359851</v>
+        <v>164.270215035099</v>
       </c>
       <c r="S3">
-        <v>0.01369526578358368</v>
+        <v>0.003700060838953901</v>
       </c>
       <c r="T3">
-        <v>0.01369526578358368</v>
+        <v>0.003700060838953901</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8911683333333333</v>
+        <v>0.2035556666666667</v>
       </c>
       <c r="H4">
-        <v>2.673505</v>
+        <v>0.6106670000000001</v>
       </c>
       <c r="I4">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="J4">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.40615466666667</v>
+        <v>26.830279</v>
       </c>
       <c r="N4">
-        <v>76.218464</v>
+        <v>80.490837</v>
       </c>
       <c r="O4">
-        <v>0.1440692774654054</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="P4">
-        <v>0.1440692774654053</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="Q4">
-        <v>22.64116051070222</v>
+        <v>5.461455328697667</v>
       </c>
       <c r="R4">
-        <v>203.77044459632</v>
+        <v>49.15309795827901</v>
       </c>
       <c r="S4">
-        <v>0.003880398101190212</v>
+        <v>0.001107135903059686</v>
       </c>
       <c r="T4">
-        <v>0.003880398101190211</v>
+        <v>0.001107135903059685</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>73.07909699999999</v>
       </c>
       <c r="I5">
-        <v>0.7362360466408275</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="J5">
-        <v>0.7362360466408276</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>61.27353666666666</v>
+        <v>32.51511900000001</v>
       </c>
       <c r="N5">
-        <v>183.82061</v>
+        <v>97.54535700000001</v>
       </c>
       <c r="O5">
-        <v>0.3474604587406809</v>
+        <v>0.218203973858649</v>
       </c>
       <c r="P5">
-        <v>0.3474604587406808</v>
+        <v>0.2182039738586489</v>
       </c>
       <c r="Q5">
-        <v>1492.604909865463</v>
+        <v>792.058511789181</v>
       </c>
       <c r="R5">
-        <v>13433.44418878917</v>
+        <v>7128.526606102629</v>
       </c>
       <c r="S5">
-        <v>0.2558129145072472</v>
+        <v>0.1605646046609584</v>
       </c>
       <c r="T5">
-        <v>0.2558129145072472</v>
+        <v>0.1605646046609584</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>73.07909699999999</v>
       </c>
       <c r="I6">
-        <v>0.7362360466408275</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="J6">
-        <v>0.7362360466408276</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>269.001297</v>
       </c>
       <c r="O6">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="P6">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="Q6">
         <v>2184.263541843201</v>
@@ -818,10 +818,10 @@
         <v>19658.37187658881</v>
       </c>
       <c r="S6">
-        <v>0.3743541368500498</v>
+        <v>0.4427897773349689</v>
       </c>
       <c r="T6">
-        <v>0.3743541368500499</v>
+        <v>0.4427897773349689</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>73.07909699999999</v>
       </c>
       <c r="I7">
-        <v>0.7362360466408275</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="J7">
-        <v>0.7362360466408276</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.40615466666667</v>
+        <v>26.830279</v>
       </c>
       <c r="N7">
-        <v>76.218464</v>
+        <v>80.490837</v>
       </c>
       <c r="O7">
-        <v>0.1440692774654054</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="P7">
-        <v>0.1440692774654053</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="Q7">
-        <v>618.8862804274452</v>
+        <v>653.5775205260209</v>
       </c>
       <c r="R7">
-        <v>5569.976523847007</v>
+        <v>5882.197684734188</v>
       </c>
       <c r="S7">
-        <v>0.1060689952835305</v>
+        <v>0.1324919998163997</v>
       </c>
       <c r="T7">
-        <v>0.1060689952835305</v>
+        <v>0.1324919998163997</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.835938333333334</v>
+        <v>8.541072</v>
       </c>
       <c r="H8">
-        <v>23.507815</v>
+        <v>25.623216</v>
       </c>
       <c r="I8">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="J8">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.27353666666666</v>
+        <v>32.51511900000001</v>
       </c>
       <c r="N8">
-        <v>183.82061</v>
+        <v>97.54535700000001</v>
       </c>
       <c r="O8">
-        <v>0.3474604587406809</v>
+        <v>0.218203973858649</v>
       </c>
       <c r="P8">
-        <v>0.3474604587406808</v>
+        <v>0.2182039738586489</v>
       </c>
       <c r="Q8">
-        <v>480.1356547852389</v>
+        <v>277.7139724675681</v>
       </c>
       <c r="R8">
-        <v>4321.22089306715</v>
+        <v>2499.425752208112</v>
       </c>
       <c r="S8">
-        <v>0.08228895697557931</v>
+        <v>0.0562976516688807</v>
       </c>
       <c r="T8">
-        <v>0.08228895697557929</v>
+        <v>0.05629765166888069</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.835938333333334</v>
+        <v>8.541072</v>
       </c>
       <c r="H9">
-        <v>23.507815</v>
+        <v>25.623216</v>
       </c>
       <c r="I9">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="J9">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>269.001297</v>
       </c>
       <c r="O9">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="P9">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="Q9">
-        <v>702.6258582928951</v>
+        <v>765.8531485901281</v>
       </c>
       <c r="R9">
-        <v>6323.632724636056</v>
+        <v>6892.678337311152</v>
       </c>
       <c r="S9">
-        <v>0.1204208611602803</v>
+        <v>0.1552523029566966</v>
       </c>
       <c r="T9">
-        <v>0.1204208611602803</v>
+        <v>0.1552523029566966</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.835938333333334</v>
+        <v>8.541072</v>
       </c>
       <c r="H10">
-        <v>23.507815</v>
+        <v>25.623216</v>
       </c>
       <c r="I10">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="J10">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.40615466666667</v>
+        <v>26.830279</v>
       </c>
       <c r="N10">
-        <v>76.218464</v>
+        <v>80.490837</v>
       </c>
       <c r="O10">
-        <v>0.1440692774654054</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="P10">
-        <v>0.1440692774654053</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="Q10">
-        <v>199.0810612551289</v>
+        <v>229.159344719088</v>
       </c>
       <c r="R10">
-        <v>1791.72955129616</v>
+        <v>2062.434102471792</v>
       </c>
       <c r="S10">
-        <v>0.03411988408068464</v>
+        <v>0.0464547492912723</v>
       </c>
       <c r="T10">
-        <v>0.03411988408068464</v>
+        <v>0.04645474929127229</v>
       </c>
     </row>
   </sheetData>
